--- a/五洲鼎食_新.xlsx
+++ b/五洲鼎食_新.xlsx
@@ -630,7 +630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK142"/>
+  <dimension ref="A1:BK150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
@@ -31473,9 +31473,6 @@
           <t>0.00</t>
         </is>
       </c>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr"/>
-      <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr">
         <is>
           <t>442</t>
@@ -31602,6 +31599,1745 @@
         </is>
       </c>
       <c r="BA142" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="W143" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="X143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA143" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AB143" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="AC143" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AD143" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="AE143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG143" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AL143" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM143" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[788.0]</t>
+        </is>
+      </c>
+      <c r="AN143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO143" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP143" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅5-6人餐[1560.0]</t>
+        </is>
+      </c>
+      <c r="AQ143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR143" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AV143" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[638.0]</t>
+        </is>
+      </c>
+      <c r="AW143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX143" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AY143" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅代金券[240.0]</t>
+        </is>
+      </c>
+      <c r="AZ143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA143" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="W144" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="X144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA144" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AB144" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="AC144" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AD144" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="AE144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG144" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AL144" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM144" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[788.0]</t>
+        </is>
+      </c>
+      <c r="AN144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO144" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP144" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅5-6人餐[1560.0]</t>
+        </is>
+      </c>
+      <c r="AQ144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR144" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AV144" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[638.0]</t>
+        </is>
+      </c>
+      <c r="AW144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX144" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AY144" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅代金券[240.0]</t>
+        </is>
+      </c>
+      <c r="AZ144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA144" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="W145" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="X145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA145" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AB145" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="AC145" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AD145" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="AE145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG145" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AL145" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM145" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[788.0]</t>
+        </is>
+      </c>
+      <c r="AN145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO145" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP145" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅5-6人餐[1560.0]</t>
+        </is>
+      </c>
+      <c r="AQ145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR145" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AV145" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[638.0]</t>
+        </is>
+      </c>
+      <c r="AW145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX145" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AY145" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅代金券[240.0]</t>
+        </is>
+      </c>
+      <c r="AZ145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA145" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="W146" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="X146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA146" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AB146" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="AC146" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AD146" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="AE146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG146" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AL146" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM146" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[788.0]</t>
+        </is>
+      </c>
+      <c r="AN146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO146" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP146" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅5-6人餐[1560.0]</t>
+        </is>
+      </c>
+      <c r="AQ146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR146" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AV146" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[638.0]</t>
+        </is>
+      </c>
+      <c r="AW146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX146" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AY146" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅代金券[240.0]</t>
+        </is>
+      </c>
+      <c r="AZ146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA146" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="W147" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="X147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA147" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AB147" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="AC147" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AD147" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="AE147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG147" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AL147" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM147" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[788.0]</t>
+        </is>
+      </c>
+      <c r="AN147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO147" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP147" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅5-6人餐[1560.0]</t>
+        </is>
+      </c>
+      <c r="AQ147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR147" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AV147" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[638.0]</t>
+        </is>
+      </c>
+      <c r="AW147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX147" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AY147" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅代金券[240.0]</t>
+        </is>
+      </c>
+      <c r="AZ147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA147" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="W148" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="X148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA148" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AB148" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="AC148" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AD148" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="AE148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG148" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AL148" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM148" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[788.0]</t>
+        </is>
+      </c>
+      <c r="AN148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO148" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP148" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅5-6人餐[1560.0]</t>
+        </is>
+      </c>
+      <c r="AQ148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR148" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AV148" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[638.0]</t>
+        </is>
+      </c>
+      <c r="AW148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX148" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AY148" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅代金券[240.0]</t>
+        </is>
+      </c>
+      <c r="AZ148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA148" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="W149" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA149" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AB149" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="AC149" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AD149" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="AE149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG149" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AL149" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM149" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[788.0]</t>
+        </is>
+      </c>
+      <c r="AN149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO149" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP149" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅5-6人餐[1560.0]</t>
+        </is>
+      </c>
+      <c r="AQ149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR149" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AV149" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[638.0]</t>
+        </is>
+      </c>
+      <c r="AW149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX149" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AY149" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅代金券[240.0]</t>
+        </is>
+      </c>
+      <c r="AZ149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA149" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="W150" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="X150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA150" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AB150" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="AC150" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AD150" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="AE150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG150" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="AL150" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM150" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[788.0]</t>
+        </is>
+      </c>
+      <c r="AN150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO150" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP150" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅5-6人餐[1560.0]</t>
+        </is>
+      </c>
+      <c r="AQ150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR150" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AV150" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅2-3人餐[638.0]</t>
+        </is>
+      </c>
+      <c r="AW150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX150" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AY150" t="inlineStr">
+        <is>
+          <t>珠海_五洲鼎食海鲜火锅代金券[240.0]</t>
+        </is>
+      </c>
+      <c r="AZ150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA150" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
